--- a/medicine/Enfance/Rolf_Kalmuczak/Rolf_Kalmuczak.xlsx
+++ b/medicine/Enfance/Rolf_Kalmuczak/Rolf_Kalmuczak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rolf Kalmuczak, né le 17 avril 1938 à Nordhausen et mort le 10 mars 2007 à Garmisch-Partenkirchen (Allemagne), est un écrivain allemand essentiellement connu sous le pseudonyme de Stefan Wolf grâce au succès de la série de romans pour la jeunesse, TKKG, vendue à plus de quatorze millions d’exemplaires. Trente millions de cassettes audio et de CD TKKG ont également été vendus. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rolf Kalmuczak a été rédacteur en chef d'un quotidien, pigiste pour Stern and Quick et conférencier.
 Il est l'auteur de la série policière Jerry Cotton (1962- début années 1980), mais c'est tardivement, à 42 ans, qu'il commence à écrire ce qui sera son plus grand succès : les TKKG (1979-2007).
@@ -548,15 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-TKKG (série pour la jeunesse)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TKKG (série pour la jeunesse)
 Cotton (série policière)
 Tom und Locke (série policière pour adolescents)
 Der Magier und das Power-Trio
-Der Puma und seine Freunde
-Scénarios
-Cliff Dexter (1966-1968), série policière plusieurs fois primée, a été créée sur une idée de Rolf Kalmuczak.
-le film Ein Fall für TKKG : Drachenauge (en français, Un cas pour TKKG : L’œil du dragon)[1], a été réalisé par Ulrich König en 1992 sur un scenario de Stefen Wolf.</t>
+Der Puma und seine Freunde</t>
         </is>
       </c>
     </row>
@@ -581,10 +597,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres principales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cliff Dexter (1966-1968), série policière plusieurs fois primée, a été créée sur une idée de Rolf Kalmuczak.
+le film Ein Fall für TKKG : Drachenauge (en français, Un cas pour TKKG : L’œil du dragon), a été réalisé par Ulrich König en 1992 sur un scenario de Stefen Wolf.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rolf_Kalmuczak</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rolf_Kalmuczak</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Pseudonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
